--- a/target/Teste.xlsx
+++ b/target/Teste.xlsx
@@ -17,7 +17,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2338</t>
+    <t>2341</t>
   </si>
 </sst>
 </file>

--- a/target/Teste.xlsx
+++ b/target/Teste.xlsx
@@ -17,7 +17,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2341</t>
+    <t>2347</t>
   </si>
 </sst>
 </file>

--- a/target/Teste.xlsx
+++ b/target/Teste.xlsx
@@ -17,7 +17,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2347</t>
+    <t>2575</t>
   </si>
 </sst>
 </file>

--- a/target/Teste.xlsx
+++ b/target/Teste.xlsx
@@ -17,7 +17,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2575</t>
+    <t>2799</t>
   </si>
 </sst>
 </file>

--- a/target/Teste.xlsx
+++ b/target/Teste.xlsx
@@ -17,7 +17,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2799</t>
+    <t>2946</t>
   </si>
 </sst>
 </file>
